--- a/BOMandCPL/SpriteCPL.xlsx
+++ b/BOMandCPL/SpriteCPL.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="sprite_bottom" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="sprite_bottom_1" localSheetId="0">Sheet1!$A$35:$F$43</definedName>
+    <definedName name="sprite_bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="sprite_top" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="sprite_top_1" localSheetId="0">Sheet1!$A$6:$F$32</definedName>
+    <definedName name="sprite_top_1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="spriteb" localSheetId="0">Sheet1!$A$35:$F$42</definedName>
+    <definedName name="spritet" localSheetId="0">Sheet1!$A$6:$F$30</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -38,8 +40,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="sprite_bottom.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:sprite_bottom.csv" space="1" comma="1" consecutive="1">
+  <connection id="2" name="sprite_top.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:sprite_top.csv" space="1" comma="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -50,8 +52,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="sprite_top.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:sprite_top.csv" space="1" comma="1" consecutive="1">
+  <connection id="3" name="spriteb.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:BOMandCPL:spriteb.csv" space="1" comma="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -62,8 +64,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="sprite_top.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:sprite_top.csv" space="1" comma="1" consecutive="1">
+  <connection id="4" name="spritet.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:Sprite with Attitude:BOMandCPL:spritet.csv" space="1" comma="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>32KHZ</t>
   </si>
@@ -140,12 +142,6 @@
     <t>RGZ48</t>
   </si>
   <si>
-    <t>GNDPIN</t>
-  </si>
-  <si>
-    <t>SPRITE_PIN</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -218,9 +214,6 @@
     <t>TXC_7Z</t>
   </si>
   <si>
-    <t>VCCPIN</t>
-  </si>
-  <si>
     <t>Ref</t>
   </si>
   <si>
@@ -278,16 +271,16 @@
     <t>SUNSENSOR2</t>
   </si>
   <si>
-    <t>TRISOL3</t>
-  </si>
-  <si>
-    <t>TRISOL4</t>
-  </si>
-  <si>
     <t>Board Bottom</t>
   </si>
   <si>
     <t>1K</t>
+  </si>
+  <si>
+    <t>CR202</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
   </si>
 </sst>
 </file>
@@ -344,9 +337,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -361,9 +356,11 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -373,11 +370,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sprite_bottom_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spriteb" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sprite_top_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spritet" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,20 +699,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.1640625" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" customWidth="1"/>
@@ -725,42 +722,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1008,77 +1005,77 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>16.22</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="C18" s="2">
-        <v>33.76</v>
+        <v>14.14</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>33.380000000000003</v>
+        <v>17.13</v>
       </c>
       <c r="C19" s="2">
-        <v>14.14</v>
+        <v>1.44</v>
       </c>
       <c r="D19" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>17.13</v>
+        <v>5.36</v>
       </c>
       <c r="C20" s="2">
-        <v>1.44</v>
+        <v>3.45</v>
       </c>
       <c r="D20" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>5.36</v>
+        <v>2.06</v>
       </c>
       <c r="C21" s="2">
-        <v>3.45</v>
+        <v>5.24</v>
       </c>
       <c r="D21" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="F21" s="2">
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1086,16 +1083,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="C22" s="2">
-        <v>5.24</v>
+        <v>8.42</v>
       </c>
       <c r="D22" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
         <v>805</v>
@@ -1103,19 +1100,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>2.5</v>
+        <v>7.03</v>
       </c>
       <c r="C23" s="2">
-        <v>8.42</v>
+        <v>8.48</v>
       </c>
       <c r="D23" s="2">
         <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2">
         <v>805</v>
@@ -1123,19 +1120,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>7.03</v>
+        <v>12.48</v>
       </c>
       <c r="C24" s="2">
-        <v>8.48</v>
+        <v>12.32</v>
       </c>
       <c r="D24" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2">
         <v>805</v>
@@ -1143,19 +1140,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>27.63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D25" s="2">
+        <v>180</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="2">
-        <v>12.48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12.32</v>
-      </c>
-      <c r="D25" s="2">
-        <v>270</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F25" s="2">
         <v>805</v>
@@ -1166,16 +1163,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>27.63</v>
+        <v>26.43</v>
       </c>
       <c r="C26" s="2">
-        <v>8.2200000000000006</v>
+        <v>13.08</v>
       </c>
       <c r="D26" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2">
         <v>805</v>
@@ -1183,121 +1180,81 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14.04</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>270</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2">
-        <v>26.43</v>
-      </c>
-      <c r="C27" s="2">
-        <v>13.08</v>
-      </c>
-      <c r="D27" s="2">
-        <v>90</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="2">
-        <v>805</v>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>14.04</v>
+        <v>2.61</v>
       </c>
       <c r="C28" s="2">
-        <v>12.2</v>
+        <v>27.74</v>
       </c>
       <c r="D28" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30.36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.61</v>
-      </c>
-      <c r="C29" s="2">
-        <v>27.74</v>
-      </c>
-      <c r="D29" s="2">
-        <v>180</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>30.36</v>
+        <v>26.88</v>
       </c>
       <c r="C30" s="2">
-        <v>19.489999999999998</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2">
-        <v>26.88</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2">
-        <v>33.869999999999997</v>
-      </c>
-      <c r="C32" s="2">
-        <v>24.05</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
@@ -1309,7 +1266,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1319,7 +1276,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>17.84</v>
@@ -1339,7 +1296,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>24.93</v>
@@ -1359,7 +1316,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2">
         <v>21.29</v>
@@ -1371,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
         <v>5.85</v>
@@ -1391,7 +1348,7 @@
         <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2">
         <v>805</v>
@@ -1399,7 +1356,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2">
         <v>24.01</v>
@@ -1411,7 +1368,7 @@
         <v>270</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2">
         <v>805</v>
@@ -1419,7 +1376,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2">
         <v>21.37</v>
@@ -1431,15 +1388,15 @@
         <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
         <v>5.84</v>
@@ -1451,10 +1408,10 @@
         <v>180</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1462,39 +1419,19 @@
         <v>66</v>
       </c>
       <c r="B42" s="2">
-        <v>3.15</v>
+        <v>15.39</v>
       </c>
       <c r="C42" s="2">
-        <v>19.7</v>
+        <v>25.32</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="2">
-        <v>27.58</v>
-      </c>
-      <c r="C43" s="2">
-        <v>28.95</v>
-      </c>
-      <c r="D43" s="2">
-        <v>180</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
